--- a/assets/materials/12-折料/text.xlsx
+++ b/assets/materials/12-折料/text.xlsx
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>生成時間：2025-09-05 11:49:01 | 圖示功能：暫時停用，等 assets/materials 圖片準備好時再實作</t>
+          <t>生成時間：2025-09-05 14:11:44 | 圖示功能：暫時停用，等 assets/materials 圖片準備好時再實作</t>
         </is>
       </c>
     </row>

--- a/assets/materials/12-折料/text.xlsx
+++ b/assets/materials/12-折料/text.xlsx
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>生成時間：2025-09-05 14:11:44 | 圖示功能：暫時停用，等 assets/materials 圖片準備好時再實作</t>
+          <t>生成時間：2025-10-06 08:36:16 | 圖示功能：已啟用 (mixed 模式)</t>
         </is>
       </c>
     </row>
